--- a/artistas.xlsx
+++ b/artistas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/git/discostuanis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{380DC30D-B3D1-114D-90DD-423C4927A81F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{172B0791-A1ED-2544-A7F7-31E1C230AF1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26560" windowHeight="16000" xr2:uid="{F55F20B7-FFD8-FA40-AE84-A2B258B40B0A}"/>
+    <workbookView xWindow="5620" yWindow="500" windowWidth="26560" windowHeight="16000" xr2:uid="{F55F20B7-FFD8-FA40-AE84-A2B258B40B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="artistas" sheetId="1" r:id="rId1"/>
@@ -66,24 +66,6 @@
     <t>Años Plus</t>
   </si>
   <si>
-    <t>esmmdcr.png</t>
-  </si>
-  <si>
-    <t>rancholindo.png</t>
-  </si>
-  <si>
-    <t>tesorodelmal.png</t>
-  </si>
-  <si>
-    <t>ceniza.png</t>
-  </si>
-  <si>
-    <t>vicepresidente.png</t>
-  </si>
-  <si>
-    <t>agnosplus.png</t>
-  </si>
-  <si>
     <t>Vicepresidente es una banda de indie rock originaria de San José, Costa Rica. La banda se formó en el año 2012 y está compuesta por cuatro miembros: Luis Montalbert-Smith en la voz y guitarra, Felipe Pérez en el bajo, Andrés Moraga en la guitarra y José Joaquín Fernández en la batería.
 La música de Vicepresidente es una mezcla de rock, indie y pop, con letras en español. La banda ha lanzado varios álbumes, incluyendo "El Rey de los Escombros" (2013), "Brillo Nuevo" (2016) y "Lo Que Hay" (2019). Su música ha sido descrita como emotiva y personal, con una mezcla de letras profundas y melodías pegajosas.
 Además de sus álbumes de estudio, Vicepresidente también ha realizado giras en Costa Rica y en otros países de América Latina, como México, Colombia y Chile. La banda ha participado en importantes festivales de música, como el Festival de la Luz en Costa Rica y el Festival Marvin en México.</t>
@@ -190,6 +172,24 @@
   </si>
   <si>
     <t>iduXMOXW0XY</t>
+  </si>
+  <si>
+    <t>esmmdcr</t>
+  </si>
+  <si>
+    <t>rancholindo</t>
+  </si>
+  <si>
+    <t>tesorodelmal</t>
+  </si>
+  <si>
+    <t>ceniza</t>
+  </si>
+  <si>
+    <t>vicepresidente</t>
+  </si>
+  <si>
+    <t>agnosplus</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25D2F3B-A5F9-334E-96AF-EB80E238346E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="404" x14ac:dyDescent="0.2">
@@ -606,22 +606,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="356" x14ac:dyDescent="0.2">
@@ -632,22 +632,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="323" x14ac:dyDescent="0.2">
@@ -658,22 +658,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -684,22 +684,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="340" x14ac:dyDescent="0.2">
@@ -710,22 +710,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -736,22 +736,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
